--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2324093.311975368</v>
+        <v>2323352.849154645</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382948</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879702</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>96.80357797952031</v>
       </c>
       <c r="G11" t="n">
         <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>54.98857508976153</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642668</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247059</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048974</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
         <v>196.0356574374222</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847003</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715467</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560306</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192602</v>
+        <v>15.72846453192608</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268821</v>
+        <v>25.92847942268827</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.3526113606712</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115014</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S12" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>103.1599108364465</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
-        <v>94.20712384475006</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167125</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>119.9783821282069</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076474</v>
+        <v>106.5118524021714</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459163</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922457</v>
+        <v>48.11537914922462</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5302200659151</v>
+        <v>35.53022006591516</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549962</v>
+        <v>16.89887198549968</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385644</v>
+        <v>14.7173616138565</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021851</v>
+        <v>13.70444699021857</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028117</v>
+        <v>36.04936959028123</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304844</v>
+        <v>28.51003926304849</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892984</v>
+        <v>16.9672475589299</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437353</v>
+        <v>35.45957938437359</v>
       </c>
       <c r="S13" t="n">
-        <v>88.3787084052948</v>
+        <v>88.37870840529486</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494622</v>
+        <v>95.26758743494628</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200255</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
         <v>120.4210422911153</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038783</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632442</v>
+        <v>93.99305435632448</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938206</v>
+        <v>86.86805231938212</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>125.7238761419516</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52106522008942</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>59.42064602642679</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.87283976874612</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715472</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192614</v>
+        <v>48.18393276333219</v>
       </c>
       <c r="E15" t="n">
         <v>25.92847942268833</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067126</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>121.3081374934053</v>
+        <v>5.358526637115071</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S15" t="n">
         <v>34.98135294622706</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027159</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
         <v>94.20712384475017</v>
@@ -1856,7 +1856,7 @@
         <v>169.4965565155939</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H17" t="n">
         <v>96.95811367770423</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V17" t="n">
         <v>90.37276924401695</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>12.33895481676277</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>128.3832282987216</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7659706229939</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>48.92726692662031</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771005</v>
+        <v>195.1910385061424</v>
       </c>
       <c r="W19" t="n">
-        <v>61.81042289591146</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H20" t="n">
         <v>96.95811367770423</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V20" t="n">
         <v>90.37276924401695</v>
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>83.49414262488442</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>59.4169781386482</v>
       </c>
       <c r="W21" t="n">
-        <v>182.9450939757259</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.25670399134608</v>
       </c>
       <c r="C22" t="n">
-        <v>31.81741139021994</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>70.32715885379758</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>17.67457409601654</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>14.31549393480165</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.01183638550105</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662031</v>
+        <v>229.3601513350526</v>
       </c>
       <c r="V25" t="n">
         <v>14.75815409771005</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141533</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048767</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
-        <v>49.0388704145322</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>159.885134065923</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2697,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>203.685317331692</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885235</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,19 +2798,19 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632593</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588536</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253701</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068735</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300668</v>
+        <v>47.54538052300674</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673126</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916828</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W29" t="n">
-        <v>199.1969084389609</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
         <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>162.0696626068272</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048761</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T30" t="n">
         <v>199.0829306929842</v>
@@ -2928,16 +2928,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>96.97590455258035</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>55.72892492502547</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.6386354988523</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348523</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017577</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454184</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730911</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.1321201386342</v>
+        <v>17.13212013863426</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955547</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920689</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
-        <v>102.0935830453759</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W31" t="n">
-        <v>136.4789380581389</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058509</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364273</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>231.8863097938097</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632593</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G32" t="n">
-        <v>264.7570588588536</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H32" t="n">
-        <v>184.2935426253701</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068732</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300665</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673123</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U32" t="n">
-        <v>101.261463159158</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V32" t="n">
-        <v>177.7081981916828</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W32" t="n">
-        <v>199.1969084389609</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.6870404000169</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
         <v>236.1938783776015</v>
@@ -3111,13 +3111,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>142.9815445215986</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048759</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453211</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>159.8851340659232</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885232</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.7879199034852</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017574</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454181</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730908</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863417</v>
+        <v>17.13212013863423</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955544</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920686</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V34" t="n">
-        <v>102.0935830453759</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W34" t="n">
-        <v>136.4789380581389</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058506</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.5405930736427</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="35">
@@ -3351,16 +3351,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>53.56905248004624</v>
+        <v>100.23611684401</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>160.2266402957612</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>180.4328844084326</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>14.75815409770996</v>
       </c>
       <c r="W37" t="n">
-        <v>69.34975322314439</v>
+        <v>49.14350911047296</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>4.427171444577895</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>23.79712696322951</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="U40" t="n">
         <v>48.92726692662031</v>
@@ -3721,7 +3721,7 @@
         <v>14.75815409771005</v>
       </c>
       <c r="W40" t="n">
-        <v>229.5763935189053</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>103.9744713519567</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>156.3325142405749</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>120.1006484492988</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>31.23762820864471</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140771</v>
+        <v>185.7236316707066</v>
       </c>
       <c r="X43" t="n">
         <v>4.809640273853859</v>
@@ -4059,16 +4059,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>113.5784124382454</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
         <v>225.9237248774628</v>
@@ -4116,7 +4116,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>84.01338665256854</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.1006484492989</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>120.100648449299</v>
       </c>
       <c r="T46" t="n">
         <v>6.084173352475625</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>893.0768066164053</v>
+        <v>618.8269353115329</v>
       </c>
       <c r="C11" t="n">
-        <v>657.1613614262085</v>
+        <v>618.8269353115329</v>
       </c>
       <c r="D11" t="n">
-        <v>431.9427345696728</v>
+        <v>618.8269353115329</v>
       </c>
       <c r="E11" t="n">
-        <v>431.9427345696728</v>
+        <v>618.8269353115329</v>
       </c>
       <c r="F11" t="n">
-        <v>431.9427345696728</v>
+        <v>521.0455434130275</v>
       </c>
       <c r="G11" t="n">
-        <v>145.9987768882659</v>
+        <v>235.1015857316204</v>
       </c>
       <c r="H11" t="n">
-        <v>90.4547616460825</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393398</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020949</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K11" t="n">
         <v>226.9372683326555</v>
@@ -5072,19 +5072,19 @@
         <v>1431.611097047739</v>
       </c>
       <c r="U11" t="n">
-        <v>1310.81420572966</v>
+        <v>1310.814205729661</v>
       </c>
       <c r="V11" t="n">
         <v>1112.798390136305</v>
       </c>
       <c r="W11" t="n">
-        <v>893.0768066164053</v>
+        <v>1112.798390136305</v>
       </c>
       <c r="X11" t="n">
-        <v>893.0768066164053</v>
+        <v>872.37970362544</v>
       </c>
       <c r="Y11" t="n">
-        <v>893.0768066164053</v>
+        <v>872.37970362544</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>612.9246269590429</v>
+        <v>132.8177251628265</v>
       </c>
       <c r="C12" t="n">
-        <v>438.4715976779159</v>
+        <v>91.41176763191436</v>
       </c>
       <c r="D12" t="n">
-        <v>422.5842597668795</v>
+        <v>75.52442972087792</v>
       </c>
       <c r="E12" t="n">
-        <v>396.3938765116388</v>
+        <v>49.33404646563724</v>
       </c>
       <c r="F12" t="n">
-        <v>249.8593185385238</v>
+        <v>35.84656024273703</v>
       </c>
       <c r="G12" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H12" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I12" t="n">
         <v>30.43390707393398</v>
       </c>
       <c r="J12" t="n">
-        <v>54.79813383722126</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K12" t="n">
-        <v>223.061321167432</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="L12" t="n">
-        <v>510.7163377867615</v>
+        <v>318.0889236932635</v>
       </c>
       <c r="M12" t="n">
-        <v>873.0305803211006</v>
+        <v>694.7085237331964</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211006</v>
+        <v>1071.328123773129</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453612</v>
+        <v>1383.299658905641</v>
       </c>
       <c r="P12" t="n">
         <v>1418.383708616426</v>
@@ -5142,28 +5142,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893785</v>
       </c>
       <c r="S12" t="n">
-        <v>1353.3135820008</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T12" t="n">
-        <v>1249.111651862975</v>
+        <v>1067.882194811034</v>
       </c>
       <c r="U12" t="n">
-        <v>1153.952940908682</v>
+        <v>839.6764121065263</v>
       </c>
       <c r="V12" t="n">
-        <v>1051.847904427155</v>
+        <v>604.5243038747835</v>
       </c>
       <c r="W12" t="n">
-        <v>930.6576194491679</v>
+        <v>483.3340188967967</v>
       </c>
       <c r="X12" t="n">
-        <v>855.8531909938499</v>
+        <v>375.7462891976337</v>
       </c>
       <c r="Y12" t="n">
-        <v>781.1399639791109</v>
+        <v>167.9859904326798</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858018</v>
+        <v>194.4516414858022</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081098</v>
+        <v>158.5625303081102</v>
       </c>
       <c r="D13" t="n">
-        <v>141.492962645989</v>
+        <v>141.4929626459893</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138107</v>
+        <v>126.626940813811</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661153</v>
+        <v>112.7840650661154</v>
       </c>
       <c r="G13" t="n">
-        <v>76.3705604294676</v>
+        <v>76.37056042946772</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184291</v>
+        <v>47.57254097184297</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393398</v>
       </c>
       <c r="J13" t="n">
-        <v>30.43390707393398</v>
+        <v>84.15679020220482</v>
       </c>
       <c r="K13" t="n">
-        <v>164.6670499418627</v>
+        <v>203.4791748685364</v>
       </c>
       <c r="L13" t="n">
-        <v>355.4987457100909</v>
+        <v>394.3108706367645</v>
       </c>
       <c r="M13" t="n">
-        <v>560.0046495552826</v>
+        <v>598.8167744819561</v>
       </c>
       <c r="N13" t="n">
-        <v>768.1830836298232</v>
+        <v>806.9952085564966</v>
       </c>
       <c r="O13" t="n">
-        <v>954.4077176581757</v>
+        <v>862.8204075624634</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206712</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571221</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617308</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856972</v>
+        <v>956.130093985698</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877716</v>
+        <v>859.9002076877724</v>
       </c>
       <c r="U13" t="n">
-        <v>703.748535849362</v>
+        <v>703.7485358493627</v>
       </c>
       <c r="V13" t="n">
-        <v>582.11111939369</v>
+        <v>582.1111193936907</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069443</v>
+        <v>425.7410211069449</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591419</v>
+        <v>330.7985419591424</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658267</v>
+        <v>243.0530345658271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>692.2376182457607</v>
+        <v>453.3640211210787</v>
       </c>
       <c r="C14" t="n">
-        <v>692.2376182457607</v>
+        <v>217.4485759308817</v>
       </c>
       <c r="D14" t="n">
-        <v>692.2376182457607</v>
+        <v>217.4485759308817</v>
       </c>
       <c r="E14" t="n">
-        <v>692.2376182457607</v>
+        <v>217.4485759308817</v>
       </c>
       <c r="F14" t="n">
-        <v>414.2987852063679</v>
+        <v>217.4485759308817</v>
       </c>
       <c r="G14" t="n">
-        <v>128.3548275249607</v>
+        <v>90.45476164608228</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608255</v>
+        <v>90.45476164608228</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393398</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020949</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326554</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550283</v>
+        <v>485.380670655028</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241022</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5303,25 +5303,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
-        <v>1521.695353696699</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1521.695353696699</v>
+        <v>1365.072875059106</v>
       </c>
       <c r="U14" t="n">
-        <v>1400.89846237862</v>
+        <v>1365.072875059106</v>
       </c>
       <c r="V14" t="n">
-        <v>1202.882646785265</v>
+        <v>1167.05705946575</v>
       </c>
       <c r="W14" t="n">
-        <v>1202.882646785265</v>
+        <v>947.3354759458508</v>
       </c>
       <c r="X14" t="n">
-        <v>1202.882646785265</v>
+        <v>706.9167894349857</v>
       </c>
       <c r="Y14" t="n">
-        <v>945.7903865596677</v>
+        <v>706.9167894349857</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>382.9856159597994</v>
+        <v>298.6480981568861</v>
       </c>
       <c r="C15" t="n">
-        <v>208.5325866786724</v>
+        <v>257.2421406259738</v>
       </c>
       <c r="D15" t="n">
-        <v>192.6452487676359</v>
+        <v>208.5715014710928</v>
       </c>
       <c r="E15" t="n">
-        <v>166.4548655123952</v>
+        <v>182.3811182158521</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9673792894949</v>
+        <v>35.84656024273708</v>
       </c>
       <c r="G15" t="n">
         <v>30.43390707393398</v>
@@ -5355,52 +5355,52 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J15" t="n">
-        <v>54.79813383722126</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K15" t="n">
-        <v>223.061321167432</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867615</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M15" t="n">
-        <v>887.3359378266946</v>
+        <v>575.3166944440777</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.723818564187</v>
+        <v>951.9362944840107</v>
       </c>
       <c r="O15" t="n">
-        <v>1521.695353696699</v>
+        <v>1263.907829616522</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893785</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751015</v>
+        <v>1402.023135948102</v>
       </c>
       <c r="T15" t="n">
-        <v>1418.313856114377</v>
+        <v>1200.929266561249</v>
       </c>
       <c r="U15" t="n">
-        <v>1323.155145160084</v>
+        <v>1105.770555606956</v>
       </c>
       <c r="V15" t="n">
-        <v>1221.050108678556</v>
+        <v>1003.665519125428</v>
       </c>
       <c r="W15" t="n">
-        <v>966.8127519503541</v>
+        <v>749.4281623972261</v>
       </c>
       <c r="X15" t="n">
-        <v>758.9612517448213</v>
+        <v>541.5766621916932</v>
       </c>
       <c r="Y15" t="n">
-        <v>551.2009529798675</v>
+        <v>333.8163634267393</v>
       </c>
     </row>
     <row r="16">
@@ -5434,7 +5434,7 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220475</v>
+        <v>84.15679020220476</v>
       </c>
       <c r="K16" t="n">
         <v>218.3899330701334</v>
@@ -5443,13 +5443,13 @@
         <v>409.2216288383615</v>
       </c>
       <c r="M16" t="n">
-        <v>613.727532683553</v>
+        <v>532.1693508240803</v>
       </c>
       <c r="N16" t="n">
-        <v>821.9059667580934</v>
+        <v>740.3477848986207</v>
       </c>
       <c r="O16" t="n">
-        <v>1008.130600786446</v>
+        <v>926.5724189269731</v>
       </c>
       <c r="P16" t="n">
         <v>1081.219273571223</v>
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E17" t="n">
         <v>478.7938061693742</v>
@@ -5513,16 +5513,16 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020949</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K17" t="n">
         <v>226.9372683326555</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550281</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.555297924102</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>891.4823611834754</v>
+        <v>351.421494328176</v>
       </c>
       <c r="C18" t="n">
-        <v>717.0293319023484</v>
+        <v>176.968465047049</v>
       </c>
       <c r="D18" t="n">
-        <v>568.0949222410972</v>
+        <v>176.968465047049</v>
       </c>
       <c r="E18" t="n">
-        <v>408.8574672356416</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F18" t="n">
-        <v>262.3229092625267</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G18" t="n">
-        <v>123.8631843435088</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393398</v>
@@ -5595,7 +5595,7 @@
         <v>54.79813383722126</v>
       </c>
       <c r="K18" t="n">
-        <v>223.061321167432</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L18" t="n">
         <v>510.7163377867615</v>
@@ -5607,10 +5607,10 @@
         <v>1263.955537866628</v>
       </c>
       <c r="O18" t="n">
-        <v>1521.695353696699</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="P18" t="n">
-        <v>1521.695353696699</v>
+        <v>1497.337131029442</v>
       </c>
       <c r="Q18" t="n">
         <v>1521.695353696699</v>
@@ -5619,25 +5619,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S18" t="n">
-        <v>1521.695353696699</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1521.695353696699</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U18" t="n">
-        <v>1521.695353696699</v>
+        <v>924.01392990944</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.695353696699</v>
+        <v>688.8618216776972</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.457996968497</v>
+        <v>559.18179309313</v>
       </c>
       <c r="X18" t="n">
-        <v>1267.457996968497</v>
+        <v>559.18179309313</v>
       </c>
       <c r="Y18" t="n">
-        <v>1059.697698203543</v>
+        <v>351.421494328176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G19" t="n">
         <v>30.43390707393398</v>
@@ -5674,7 +5674,7 @@
         <v>30.43390707393398</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947714</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L19" t="n">
         <v>94.69987566531972</v>
@@ -5707,16 +5707,16 @@
         <v>277.2364804240506</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810891</v>
+        <v>872.4784887810893</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852409</v>
+        <v>743.2932336852413</v>
       </c>
       <c r="D20" t="n">
-        <v>624.804796923054</v>
+        <v>624.8047969230544</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693735</v>
+        <v>478.7938061693737</v>
       </c>
       <c r="F20" t="n">
         <v>307.5851632243298</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020973</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241022</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5789,7 +5789,7 @@
         <v>1416.343026973962</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548411</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X20" t="n">
         <v>1169.663137131895</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>500.3559039894272</v>
+        <v>317.8280416542031</v>
       </c>
       <c r="C21" t="n">
-        <v>325.9028747083003</v>
+        <v>317.8280416542031</v>
       </c>
       <c r="D21" t="n">
-        <v>176.968465047049</v>
+        <v>168.8936319929518</v>
       </c>
       <c r="E21" t="n">
-        <v>176.968465047049</v>
+        <v>168.8936319929518</v>
       </c>
       <c r="F21" t="n">
-        <v>30.43390707393398</v>
+        <v>168.8936319929518</v>
       </c>
       <c r="G21" t="n">
         <v>30.43390707393398</v>
@@ -5829,25 +5829,25 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393398</v>
+        <v>54.79813383722126</v>
       </c>
       <c r="K21" t="n">
-        <v>168.829601864992</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4846184843215</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="M21" t="n">
-        <v>833.1042185242545</v>
+        <v>599.680921207365</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.723818564187</v>
+        <v>976.3005212472981</v>
       </c>
       <c r="O21" t="n">
-        <v>1521.695353696699</v>
+        <v>1288.27205637981</v>
       </c>
       <c r="P21" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.653649542624</v>
       </c>
       <c r="Q21" t="n">
         <v>1521.695353696699</v>
@@ -5856,25 +5856,25 @@
         <v>1437.357835893785</v>
       </c>
       <c r="S21" t="n">
-        <v>1268.976064197887</v>
+        <v>1437.357835893785</v>
       </c>
       <c r="T21" t="n">
-        <v>1268.976064197887</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="U21" t="n">
-        <v>1268.976064197887</v>
+        <v>1008.058183802425</v>
       </c>
       <c r="V21" t="n">
-        <v>1268.976064197887</v>
+        <v>948.0410341674267</v>
       </c>
       <c r="W21" t="n">
-        <v>1084.183039979982</v>
+        <v>693.8036774392251</v>
       </c>
       <c r="X21" t="n">
-        <v>876.3315397744491</v>
+        <v>693.8036774392251</v>
       </c>
       <c r="Y21" t="n">
-        <v>668.5712410094952</v>
+        <v>486.0433786742711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C22" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D22" t="n">
         <v>30.43390707393398</v>
@@ -5911,7 +5911,7 @@
         <v>30.43390707393398</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947714</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L22" t="n">
         <v>94.69987566531972</v>
@@ -5932,28 +5932,28 @@
         <v>326.6579621681115</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681115</v>
+        <v>157.793133463984</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681115</v>
+        <v>157.793133463984</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681115</v>
+        <v>157.793133463984</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240506</v>
+        <v>108.3716517199231</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627273</v>
+        <v>93.46442535859977</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6893458703302</v>
+        <v>43.82451716620275</v>
       </c>
       <c r="X22" t="n">
-        <v>212.6893458703302</v>
+        <v>43.82451716620275</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.6893458703302</v>
+        <v>43.82451716620275</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>30.43390707393398</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020962</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241024</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>677.4464641423742</v>
+        <v>623.8096765378582</v>
       </c>
       <c r="C24" t="n">
-        <v>502.9934348612472</v>
+        <v>449.3566472567312</v>
       </c>
       <c r="D24" t="n">
-        <v>354.059025199996</v>
+        <v>300.4222375954799</v>
       </c>
       <c r="E24" t="n">
-        <v>194.8215701945405</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F24" t="n">
-        <v>48.28701222142544</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G24" t="n">
-        <v>48.28701222142544</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H24" t="n">
-        <v>48.28701222142544</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I24" t="n">
         <v>30.43390707393398</v>
@@ -6069,13 +6069,13 @@
         <v>30.43390707393398</v>
       </c>
       <c r="K24" t="n">
-        <v>30.43390707393398</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7913802412347</v>
+        <v>486.3521110234743</v>
       </c>
       <c r="M24" t="n">
-        <v>496.4109802811678</v>
+        <v>862.9717110634074</v>
       </c>
       <c r="N24" t="n">
         <v>873.0305803211008</v>
@@ -6090,28 +6090,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197887</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T24" t="n">
-        <v>1067.882194811034</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U24" t="n">
-        <v>1067.882194811034</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="V24" t="n">
-        <v>1067.882194811034</v>
+        <v>917.0676043822052</v>
       </c>
       <c r="W24" t="n">
-        <v>1053.422099927396</v>
+        <v>902.6075094985672</v>
       </c>
       <c r="X24" t="n">
-        <v>1053.422099927396</v>
+        <v>902.6075094985672</v>
       </c>
       <c r="Y24" t="n">
-        <v>845.6618011624423</v>
+        <v>694.8472107336133</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C25" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D25" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E25" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F25" t="n">
-        <v>65.79939837241989</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G25" t="n">
         <v>30.43390707393398</v>
@@ -6148,7 +6148,7 @@
         <v>30.43390707393398</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947714</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L25" t="n">
         <v>94.69987566531972</v>
@@ -6178,19 +6178,19 @@
         <v>326.6579621681115</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240506</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X25" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
         <v>1250.781708514024</v>
@@ -6209,28 +6209,28 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601854</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754848</v>
+        <v>282.989450475485</v>
       </c>
       <c r="H26" t="n">
         <v>96.83435691450498</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491196</v>
+        <v>548.91668804912</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471596</v>
+        <v>955.9037100471601</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
@@ -6239,19 +6239,19 @@
         <v>1851.630069864825</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606062</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T26" t="n">
         <v>2646.707063508979</v>
@@ -6260,10 +6260,10 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X26" t="n">
         <v>1941.804426953606</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.485539360012</v>
+        <v>535.5511296987607</v>
       </c>
       <c r="C27" t="n">
-        <v>510.032510078885</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="D27" t="n">
         <v>361.0981004176337</v>
@@ -6291,16 +6291,16 @@
         <v>201.8606454121782</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J27" t="n">
         <v>79.69031420235044</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1919.202275730635</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.702140310511</v>
+        <v>1303.539661529371</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.550032078768</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W27" t="n">
-        <v>1268.312675350567</v>
+        <v>814.1501965694272</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.461175145034</v>
+        <v>608.4074517899403</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.70087638008</v>
+        <v>552.2068098719076</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209085</v>
+        <v>91.32388724474168</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992283</v>
+        <v>73.947361163756</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992283</v>
+        <v>75.36166255139325</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992283</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992283</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998152</v>
+        <v>65.6115217999815</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906317</v>
+        <v>56.6726970090045</v>
       </c>
       <c r="J28" t="n">
-        <v>79.18841951479041</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K28" t="n">
-        <v>83.02212736033357</v>
+        <v>132.3734726361004</v>
       </c>
       <c r="L28" t="n">
-        <v>291.9980077818436</v>
+        <v>192.805733381943</v>
       </c>
       <c r="M28" t="n">
-        <v>514.6480962803172</v>
+        <v>266.9122022047491</v>
       </c>
       <c r="N28" t="n">
-        <v>740.9707150081396</v>
+        <v>493.2348209325714</v>
       </c>
       <c r="O28" t="n">
-        <v>796.7959140141064</v>
+        <v>556.7910181444813</v>
       </c>
       <c r="P28" t="n">
-        <v>821.0433336359704</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359704</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>803.738161778764</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438594</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426403</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>517.622936300937</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419714</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>276.640591751932</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>200.2106977008359</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.977775404227</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028723</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F29" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754844</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.8343569145045</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
@@ -6482,19 +6482,19 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R29" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V29" t="n">
         <v>2364.919526790957</v>
@@ -6503,7 +6503,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y29" t="n">
         <v>1703.224751824715</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>754.9765411633506</v>
+        <v>537.950981386897</v>
       </c>
       <c r="C30" t="n">
-        <v>580.5235118822236</v>
+        <v>363.4979521057699</v>
       </c>
       <c r="D30" t="n">
-        <v>580.5235118822236</v>
+        <v>214.5635424445186</v>
       </c>
       <c r="E30" t="n">
-        <v>421.286056876768</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="F30" t="n">
-        <v>274.751498903653</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="G30" t="n">
-        <v>136.2917739846352</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2917739846352</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J30" t="n">
         <v>79.69031420235044</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1884.398970467653</v>
       </c>
       <c r="T30" t="n">
-        <v>1767.642618883714</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U30" t="n">
-        <v>1539.436836179206</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V30" t="n">
-        <v>1441.481377035186</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W30" t="n">
-        <v>1187.244020306984</v>
+        <v>965.7098534163486</v>
       </c>
       <c r="X30" t="n">
-        <v>979.3925201014512</v>
+        <v>909.418010057737</v>
       </c>
       <c r="Y30" t="n">
-        <v>923.1918781834186</v>
+        <v>701.657711292783</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.31218528794273</v>
+        <v>91.32388724474168</v>
       </c>
       <c r="C31" t="n">
-        <v>78.9356592069571</v>
+        <v>73.947361163756</v>
       </c>
       <c r="D31" t="n">
-        <v>78.9356592069571</v>
+        <v>75.36166255139325</v>
       </c>
       <c r="E31" t="n">
-        <v>78.9356592069571</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992272</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998146</v>
+        <v>65.6115217999815</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900456</v>
+        <v>56.6726970090045</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905574</v>
+        <v>56.6726970090045</v>
       </c>
       <c r="K31" t="n">
-        <v>280.9170923117681</v>
+        <v>73.45704718416673</v>
       </c>
       <c r="L31" t="n">
-        <v>435.9648453245447</v>
+        <v>282.4329276056768</v>
       </c>
       <c r="M31" t="n">
-        <v>510.0713141473507</v>
+        <v>356.5393964284829</v>
       </c>
       <c r="N31" t="n">
-        <v>736.3939328751732</v>
+        <v>582.8620151563052</v>
       </c>
       <c r="O31" t="n">
-        <v>792.21913188114</v>
+        <v>787.2308338379396</v>
       </c>
       <c r="P31" t="n">
-        <v>816.466551503004</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="Q31" t="n">
-        <v>816.466551503004</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R31" t="n">
-        <v>799.1613796457978</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S31" t="n">
-        <v>728.4025421108933</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T31" t="n">
-        <v>650.6852409096741</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U31" t="n">
-        <v>513.0461541679709</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V31" t="n">
-        <v>409.9213228090053</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W31" t="n">
-        <v>272.063809618966</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X31" t="n">
-        <v>195.63391556787</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.4009932712611</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607513</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514023</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
         <v>1044.075666754194</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028712</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601849</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G32" t="n">
         <v>282.9894504754843</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450441</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210068</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491202</v>
       </c>
       <c r="L32" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471605</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O32" t="n">
         <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953159</v>
       </c>
       <c r="S32" t="n">
         <v>2718.278735061232</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508977</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287605</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
         <v>2364.919526790956</v>
@@ -6740,10 +6740,10 @@
         <v>2163.710528367763</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953604</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824714</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.485539360012</v>
+        <v>533.4423742727149</v>
       </c>
       <c r="C33" t="n">
-        <v>510.032510078885</v>
+        <v>358.9893449915879</v>
       </c>
       <c r="D33" t="n">
-        <v>361.0981004176337</v>
+        <v>358.9893449915879</v>
       </c>
       <c r="E33" t="n">
-        <v>201.8606454121782</v>
+        <v>199.7518899861324</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235044</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K33" t="n">
-        <v>247.9535015325612</v>
+        <v>247.9535015325613</v>
       </c>
       <c r="L33" t="n">
         <v>535.6085181518907</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T33" t="n">
-        <v>1919.202275730635</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U33" t="n">
-        <v>1757.702140310511</v>
+        <v>1303.539661529371</v>
       </c>
       <c r="V33" t="n">
-        <v>1522.550032078768</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W33" t="n">
-        <v>1268.312675350567</v>
+        <v>965.7098534163483</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.461175145034</v>
+        <v>757.8583532108155</v>
       </c>
       <c r="Y33" t="n">
-        <v>852.70087638008</v>
+        <v>701.6577112927829</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.32388724474119</v>
+        <v>91.32388724474156</v>
       </c>
       <c r="C34" t="n">
-        <v>73.94736116375559</v>
+        <v>73.9473611637559</v>
       </c>
       <c r="D34" t="n">
-        <v>75.36166255139293</v>
+        <v>75.36166255139318</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695701</v>
+        <v>78.93565920695721</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992265</v>
+        <v>83.51244133992279</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998142</v>
+        <v>65.6115217999815</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900458</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5397647905574</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="K34" t="n">
-        <v>280.9170923117682</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L34" t="n">
-        <v>489.8929727332783</v>
+        <v>416.679295381784</v>
       </c>
       <c r="M34" t="n">
-        <v>571.7304397620256</v>
+        <v>505.0830161041499</v>
       </c>
       <c r="N34" t="n">
-        <v>649.5094388141805</v>
+        <v>582.8620151563048</v>
       </c>
       <c r="O34" t="n">
-        <v>705.3346378201473</v>
+        <v>787.2308338379391</v>
       </c>
       <c r="P34" t="n">
-        <v>729.5820574420113</v>
+        <v>811.4782534598031</v>
       </c>
       <c r="Q34" t="n">
-        <v>811.4782534598022</v>
+        <v>811.4782534598031</v>
       </c>
       <c r="R34" t="n">
-        <v>794.173081602596</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S34" t="n">
-        <v>723.4142440676915</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T34" t="n">
-        <v>645.6969428664725</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U34" t="n">
-        <v>508.0578561247693</v>
+        <v>508.05785612477</v>
       </c>
       <c r="V34" t="n">
-        <v>404.9330247658037</v>
+        <v>404.9330247658043</v>
       </c>
       <c r="W34" t="n">
-        <v>267.0755115757644</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X34" t="n">
-        <v>190.6456175246684</v>
+        <v>190.6456175246689</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.4126952280596</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>872.47848878109</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852422</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230553</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E35" t="n">
         <v>478.7938061693748</v>
@@ -6938,13 +6938,13 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>770.3442345109733</v>
+        <v>353.8213460163123</v>
       </c>
       <c r="C36" t="n">
-        <v>595.8912052298463</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D36" t="n">
-        <v>446.956795568595</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E36" t="n">
-        <v>287.7193405631395</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F36" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G36" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H36" t="n">
         <v>30.43390707393398</v>
@@ -7023,16 +7023,16 @@
         <v>318.0889236932635</v>
       </c>
       <c r="M36" t="n">
-        <v>599.7226253614405</v>
+        <v>694.7085237331966</v>
       </c>
       <c r="N36" t="n">
-        <v>976.3422254013735</v>
+        <v>873.0305803211008</v>
       </c>
       <c r="O36" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453612</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.695353696699</v>
@@ -7041,25 +7041,25 @@
         <v>1521.695353696699</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.695353696699</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.695353696699</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U36" t="n">
-        <v>1467.58519967645</v>
+        <v>1050.971109741211</v>
       </c>
       <c r="V36" t="n">
-        <v>1232.433091444708</v>
+        <v>815.8190015094679</v>
       </c>
       <c r="W36" t="n">
-        <v>978.1957347165061</v>
+        <v>561.5816447812663</v>
       </c>
       <c r="X36" t="n">
-        <v>770.3442345109733</v>
+        <v>561.5816447812663</v>
       </c>
       <c r="Y36" t="n">
-        <v>770.3442345109733</v>
+        <v>353.8213460163123</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H37" t="n">
         <v>30.43390707393398</v>
@@ -7096,7 +7096,7 @@
         <v>30.43390707393398</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947714</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L37" t="n">
         <v>94.69987566531972</v>
@@ -7120,25 +7120,25 @@
         <v>326.6579621681115</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681115</v>
+        <v>144.4025233717149</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681115</v>
+        <v>144.4025233717149</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765412</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627275</v>
+        <v>80.07381526633093</v>
       </c>
       <c r="W37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.2789982817736</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810886</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852405</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230536</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693731</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243293</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372716</v>
@@ -7175,10 +7175,10 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M38" t="n">
         <v>789.5552979241022</v>
@@ -7205,19 +7205,19 @@
         <v>1521.695353696699</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548411</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131895</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>659.5933589948828</v>
+        <v>254.3312088865823</v>
       </c>
       <c r="C39" t="n">
-        <v>485.1403297137558</v>
+        <v>254.3312088865823</v>
       </c>
       <c r="D39" t="n">
-        <v>336.2059200525046</v>
+        <v>254.3312088865823</v>
       </c>
       <c r="E39" t="n">
-        <v>176.968465047049</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="F39" t="n">
-        <v>30.43390707393398</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="G39" t="n">
-        <v>30.43390707393398</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H39" t="n">
-        <v>30.43390707393398</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I39" t="n">
         <v>30.43390707393398</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722126</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K39" t="n">
-        <v>54.79813383722126</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L39" t="n">
-        <v>119.7913802412347</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M39" t="n">
-        <v>496.4109802811678</v>
+        <v>575.3166944440778</v>
       </c>
       <c r="N39" t="n">
-        <v>873.0305803211008</v>
+        <v>951.9362944840109</v>
       </c>
       <c r="O39" t="n">
-        <v>1185.002115453612</v>
+        <v>1263.907829616522</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616426</v>
+        <v>1497.289422779337</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.695353696699</v>
@@ -7281,22 +7281,22 @@
         <v>1521.695353696699</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.695353696699</v>
+        <v>1320.601484309846</v>
       </c>
       <c r="U39" t="n">
-        <v>1521.695353696699</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="V39" t="n">
-        <v>1497.657851713639</v>
+        <v>1092.395701605339</v>
       </c>
       <c r="W39" t="n">
-        <v>1243.420494985437</v>
+        <v>838.1583448771371</v>
       </c>
       <c r="X39" t="n">
-        <v>1035.568994779905</v>
+        <v>630.3068446716043</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.8086960149508</v>
+        <v>422.5465459066504</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7333,7 @@
         <v>30.43390707393398</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947714</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L40" t="n">
         <v>94.69987566531972</v>
@@ -7360,13 +7360,13 @@
         <v>326.6579621681115</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681115</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240506</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W40" t="n">
         <v>30.43390707393398</v>
@@ -7406,34 +7406,34 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890032</v>
+        <v>63.97560257890033</v>
       </c>
       <c r="J41" t="n">
-        <v>94.29429658517583</v>
+        <v>141.688015056145</v>
       </c>
       <c r="K41" t="n">
-        <v>260.4789638376218</v>
+        <v>307.872682308591</v>
       </c>
       <c r="L41" t="n">
-        <v>518.9223661599945</v>
+        <v>566.3160846309636</v>
       </c>
       <c r="M41" t="n">
-        <v>823.0969934290683</v>
+        <v>993.3830543982476</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250563</v>
+        <v>1287.847547595504</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316133</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.19370786547</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>208.9634914845439</v>
+        <v>598.9824929140068</v>
       </c>
       <c r="C42" t="n">
-        <v>34.51046220341689</v>
+        <v>424.5294636328798</v>
       </c>
       <c r="D42" t="n">
-        <v>34.51046220341689</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="E42" t="n">
-        <v>34.51046220341689</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="F42" t="n">
-        <v>34.51046220341689</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G42" t="n">
         <v>34.51046220341689</v>
@@ -7488,52 +7488,52 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670417</v>
       </c>
       <c r="K42" t="n">
-        <v>202.7736495336277</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>490.4286661529571</v>
+        <v>275.573025203191</v>
       </c>
       <c r="M42" t="n">
-        <v>878.0877243774197</v>
+        <v>663.2320834276536</v>
       </c>
       <c r="N42" t="n">
-        <v>1291.713977745012</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1603.685512877524</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1641.185592367931</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S42" t="n">
-        <v>1641.185592367931</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T42" t="n">
-        <v>1440.091722981078</v>
+        <v>1524.429240783992</v>
       </c>
       <c r="U42" t="n">
-        <v>1282.180092435043</v>
+        <v>1296.223458079484</v>
       </c>
       <c r="V42" t="n">
-        <v>1047.0279842033</v>
+        <v>1061.071349847741</v>
       </c>
       <c r="W42" t="n">
-        <v>792.7906274750987</v>
+        <v>806.8339931195396</v>
       </c>
       <c r="X42" t="n">
-        <v>584.9391272695659</v>
+        <v>598.9824929140068</v>
       </c>
       <c r="Y42" t="n">
-        <v>377.1788285046119</v>
+        <v>598.9824929140068</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.8242485158399</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>155.8242485158399</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
-        <v>155.8242485158399</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E43" t="n">
         <v>34.51046220341689</v>
@@ -7570,10 +7570,10 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896004</v>
+        <v>38.34417004896005</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480262</v>
+        <v>98.77643079480264</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176087</v>
@@ -7582,7 +7582,7 @@
         <v>250.6618986697636</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757304</v>
+        <v>306.4870976757305</v>
       </c>
       <c r="P43" t="n">
         <v>330.7345172975944</v>
@@ -7600,19 +7600,19 @@
         <v>324.5888876486291</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591796</v>
+        <v>258.5214724591797</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9683126524677</v>
+        <v>226.9683126524679</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146822</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158399</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.8242485158399</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7655,16 +7655,16 @@
         <v>489.457225784511</v>
       </c>
       <c r="M44" t="n">
-        <v>793.6318530535849</v>
+        <v>916.5241955517949</v>
       </c>
       <c r="N44" t="n">
-        <v>1088.096346250842</v>
+        <v>1210.988688749052</v>
       </c>
       <c r="O44" t="n">
-        <v>1320.963179316412</v>
+        <v>1443.855521814622</v>
       </c>
       <c r="P44" t="n">
-        <v>1482.035250865749</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q44" t="n">
         <v>1725.523110170844</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8610252807914</v>
+        <v>347.4232164035618</v>
       </c>
       <c r="C45" t="n">
-        <v>457.4079959996644</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="D45" t="n">
-        <v>308.4735863384132</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="E45" t="n">
-        <v>149.2361313329577</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="F45" t="n">
-        <v>149.2361313329577</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G45" t="n">
         <v>34.51046220341689</v>
@@ -7731,46 +7731,46 @@
         <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>490.4286661529571</v>
+        <v>275.573025203191</v>
       </c>
       <c r="M45" t="n">
-        <v>878.0877243774197</v>
+        <v>663.2320834276536</v>
       </c>
       <c r="N45" t="n">
-        <v>1291.713977745012</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O45" t="n">
-        <v>1603.685512877524</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.523110170844</v>
+        <v>1271.709951285179</v>
       </c>
       <c r="U45" t="n">
-        <v>1497.317327466337</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1262.165219234594</v>
+        <v>808.3520603489289</v>
       </c>
       <c r="W45" t="n">
-        <v>1007.927862506392</v>
+        <v>723.4900536291627</v>
       </c>
       <c r="X45" t="n">
-        <v>800.0763623008595</v>
+        <v>515.6385534236299</v>
       </c>
       <c r="Y45" t="n">
-        <v>800.0763623008595</v>
+        <v>515.6385534236299</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H46" t="n">
         <v>34.51046220341689</v>
@@ -7807,10 +7807,10 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896004</v>
+        <v>38.34417004896005</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480262</v>
+        <v>98.77643079480264</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176087</v>
@@ -7819,7 +7819,7 @@
         <v>250.6618986697636</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757304</v>
+        <v>306.4870976757305</v>
       </c>
       <c r="P46" t="n">
         <v>330.7345172975944</v>
@@ -7831,25 +7831,25 @@
         <v>330.7345172975944</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975944</v>
+        <v>209.4207309851712</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486291</v>
+        <v>203.2751013362059</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591797</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524679</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146823</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.8242485158401</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
   </sheetData>
@@ -8699,7 +8699,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.5024215275172</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>440.1042398205822</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N12" t="n">
-        <v>61.53807801265208</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>118.1622196984939</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565159</v>
       </c>
       <c r="M15" t="n">
         <v>454.5540958868387</v>
       </c>
       <c r="N15" t="n">
-        <v>387.1824019899176</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>82.72378564719557</v>
+        <v>238.7600270612401</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868387</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N18" t="n">
-        <v>441.9619164368268</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
-        <v>339.0828048298204</v>
+        <v>78.73955651661689</v>
       </c>
       <c r="P18" t="n">
-        <v>82.72378564719557</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7220906850686</v>
+        <v>130.3263560055304</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.296052629596</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565159</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N21" t="n">
         <v>441.9619164368268</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>82.72378564719557</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7220906850686</v>
+        <v>105.7642160932254</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,16 +9717,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751721</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>170.539796362016</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368269</v>
+        <v>71.69855201032222</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10665,16 +10665,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751721</v>
+        <v>94.5024215275172</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>358.608743996176</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368269</v>
+        <v>241.6613674953836</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751721</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>145.9294662980894</v>
+        <v>80.27972245565159</v>
       </c>
       <c r="M39" t="n">
         <v>454.5540958868388</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3745461571521</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>129.2041152902739</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>205.7920657414588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>153.8144453542004</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>205.7920657414588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.0172406307678</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>250.213769039549</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089987</v>
+        <v>178.3558667294785</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>147.6324267813479</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874602</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457563</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>254.5213376233409</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>222.9664405879703</v>
@@ -23504,13 +23504,13 @@
         <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>157.3606419626414</v>
       </c>
       <c r="H14" t="n">
-        <v>165.0999366510202</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874613</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1834140824707</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-4.082184098851613e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810094.4532797692</v>
+        <v>810094.4532797693</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="C2" t="n">
+        <v>778312.5217811867</v>
+      </c>
+      <c r="D2" t="n">
         <v>778312.5217811863</v>
       </c>
-      <c r="D2" t="n">
-        <v>778312.5217811865</v>
-      </c>
       <c r="E2" t="n">
-        <v>667888.2069400983</v>
+        <v>667888.2069400981</v>
       </c>
       <c r="F2" t="n">
         <v>667888.2069400983</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="J2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="N2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710686</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189902</v>
+        <v>319206.1449189901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612107</v>
+        <v>116916.0581612106</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>84530.31055472429</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239517</v>
+        <v>87131.09894239515</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510458</v>
+        <v>34584.19673510453</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>319318.1120938301</v>
+        <v>319318.11209383</v>
       </c>
       <c r="F4" t="n">
         <v>319318.11209383</v>
@@ -26433,7 +26433,7 @@
         <v>386434.3043956759</v>
       </c>
       <c r="H4" t="n">
-        <v>386434.3043956759</v>
+        <v>386434.3043956758</v>
       </c>
       <c r="I4" t="n">
         <v>386434.3043956759</v>
@@ -26445,7 +26445,7 @@
         <v>385812.9384819478</v>
       </c>
       <c r="L4" t="n">
-        <v>385812.9384819479</v>
+        <v>385812.9384819478</v>
       </c>
       <c r="M4" t="n">
         <v>386434.3043956759</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678312</v>
       </c>
       <c r="F5" t="n">
         <v>36923.20336678311</v>
@@ -26494,22 +26494,22 @@
         <v>57382.03161561135</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561137</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431451</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.94570368936</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.94570368936</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303035.6717853661</v>
+        <v>303031.2582074979</v>
       </c>
       <c r="C6" t="n">
-        <v>303035.6717853658</v>
+        <v>303031.2582074981</v>
       </c>
       <c r="D6" t="n">
-        <v>303035.671785366</v>
+        <v>303031.2582074978</v>
       </c>
       <c r="E6" t="n">
-        <v>-7559.253439505148</v>
+        <v>-7854.257319586702</v>
       </c>
       <c r="F6" t="n">
-        <v>311646.8914794853</v>
+        <v>311351.8875994037</v>
       </c>
       <c r="G6" t="n">
-        <v>263218.889706354</v>
+        <v>263218.8897063542</v>
       </c>
       <c r="H6" t="n">
-        <v>347749.2002610781</v>
+        <v>347749.2002610786</v>
       </c>
       <c r="I6" t="n">
-        <v>347749.2002610783</v>
+        <v>347749.2002610782</v>
       </c>
       <c r="J6" t="n">
-        <v>219878.6531122989</v>
+        <v>219878.6531122991</v>
       </c>
       <c r="K6" t="n">
-        <v>336794.7112735096</v>
+        <v>336794.7112735098</v>
       </c>
       <c r="L6" t="n">
-        <v>252264.4007187854</v>
+        <v>252264.4007187856</v>
       </c>
       <c r="M6" t="n">
-        <v>260618.1013186833</v>
+        <v>260618.1013186837</v>
       </c>
       <c r="N6" t="n">
         <v>347749.2002610784</v>
       </c>
       <c r="O6" t="n">
-        <v>312168.8804483521</v>
+        <v>312168.8804483518</v>
       </c>
       <c r="P6" t="n">
-        <v>346753.0771834564</v>
+        <v>346753.0771834565</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L2" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
         <v>237.379489226118</v>
@@ -26802,7 +26802,7 @@
         <v>380.4238384241747</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="H4" t="n">
         <v>380.4238384241747</v>
@@ -26811,13 +26811,13 @@
         <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241748</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504679</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766595</v>
+        <v>87.335428947666</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411212</v>
+        <v>27.90169797411207</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641148</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006005</v>
+        <v>69.27158386005982</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504679</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D12" t="n">
         <v>131.7166010327127</v>
@@ -28178,16 +28178,16 @@
         <v>131.7166010327127</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>95.92301985653769</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327127</v>
+        <v>99.26113280130612</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,10 +28269,10 @@
         <v>131.7166010327127</v>
       </c>
       <c r="J13" t="n">
-        <v>77.4510625193078</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327127</v>
+        <v>116.6552291119075</v>
       </c>
       <c r="L13" t="n">
         <v>131.7166010327127</v>
@@ -28284,10 +28284,10 @@
         <v>131.7166010327127</v>
       </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>131.7166010327127</v>
-      </c>
-      <c r="P13" t="n">
-        <v>39.20416659259824</v>
       </c>
       <c r="Q13" t="n">
         <v>131.7166010327127</v>
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327126</v>
+        <v>99.26113280130656</v>
       </c>
       <c r="E15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15.76699017642237</v>
       </c>
       <c r="H15" t="n">
         <v>109.6433667609296</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>131.7166010327126</v>
@@ -28515,7 +28515,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327126</v>
+        <v>49.33459915445735</v>
       </c>
       <c r="N16" t="n">
         <v>131.7166010327126</v>
@@ -28524,7 +28524,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="P16" t="n">
-        <v>49.33459915445752</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
         <v>67.32062995745125</v>
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>97.30441194416682</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,19 +28691,19 @@
         <v>83.49414262488442</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>123.311754862198</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H19" t="n">
         <v>160.2266402957612</v>
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.4510625193078</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28779,10 +28779,10 @@
         <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
+        <v>56.94660481768562</v>
+      </c>
+      <c r="W19" t="n">
         <v>237.379489226118</v>
-      </c>
-      <c r="W19" t="n">
-        <v>224.7125754406795</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,10 +28889,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
@@ -28928,22 +28928,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>173.3836090107771</v>
       </c>
       <c r="W21" t="n">
-        <v>68.74988918519369</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5752761905912</v>
       </c>
       <c r="C22" t="n">
-        <v>135.4294097084079</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>77.4510625193078</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>67.32062995745125</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170863</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>220.0953094380075</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>96.20602479606976</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>62.48145558409973</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>237.379489226118</v>
@@ -29205,10 +29205,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>132.7541342374928</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H25" t="n">
         <v>160.2266402957612</v>
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>77.4510625193078</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768565</v>
       </c>
       <c r="V25" t="n">
         <v>237.379489226118</v>
@@ -29317,7 +29317,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0440602784529</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
         <v>150.044060278452</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.08766787178547</v>
+      </c>
+      <c r="Y27" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T27" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="U27" t="n">
-        <v>66.03859081153976</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,31 +29451,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
-        <v>101.5544282523656</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>7.809089096912132</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.32062995745125</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.463521043040174</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29648,16 +29648,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>135.8246825968449</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,46 +29667,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J31" t="n">
-        <v>150.0440602784521</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K31" t="n">
-        <v>150.0440602784521</v>
+        <v>13.08145689860511</v>
       </c>
       <c r="L31" t="n">
-        <v>95.57120431003433</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29715,28 +29715,28 @@
         <v>67.32062995745125</v>
       </c>
       <c r="R31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="33">
@@ -29831,13 +29831,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.087667871785328</v>
       </c>
       <c r="G33" t="n">
         <v>137.0751276698277</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>66.03859081153956</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>150.0440602784521</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
-        <v>150.0440602784521</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>7.80908909691037</v>
+        <v>14.44166858541399</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.0440602784521</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="35">
@@ -30071,16 +30071,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
         <v>80.15602968011628</v>
@@ -30113,13 +30113,13 @@
         <v>83.49414262488442</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>172.3546723974166</v>
+        <v>125.6876080334528</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,13 +30159,13 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I37" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>77.4510625193078</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>167.1761804170863</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957493</v>
       </c>
       <c r="T37" t="n">
         <v>226.984188467659</v>
@@ -30204,7 +30204,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="W37" t="n">
-        <v>217.1732451134466</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30302,25 +30302,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>153.217909010823</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,13 +30353,13 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>209.0034601861958</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>77.4510625193078</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T40" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922662</v>
       </c>
       <c r="U40" t="n">
         <v>237.379489226118</v>
@@ -30441,7 +30441,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="W40" t="n">
-        <v>56.94660481768568</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30481,7 +30481,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>47.8724428999688</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,10 +30490,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>124.1336792911213</v>
       </c>
       <c r="N41" t="n">
-        <v>46.15486527700818</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>43.47059421268202</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.6433667609296</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S42" t="n">
         <v>166.6979539789397</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>69.59121063688792</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>26.33331419727041</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30639,7 +30639,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.4510625193078</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30678,7 +30678,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658844</v>
       </c>
       <c r="X43" t="n">
         <v>220.9000151151833</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>124.1336792911213</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,10 +30736,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>77.63521095601268</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7688902471339</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.359332514826</v>
@@ -30779,16 +30779,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>23.49671523158233</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.49414262488442</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30836,7 +30836,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>167.681596508351</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30870,13 +30870,13 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H46" t="n">
-        <v>40.12599184646223</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I46" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.4510625193078</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>167.1761804170863</v>
       </c>
       <c r="S46" t="n">
-        <v>220.0953094380075</v>
+        <v>99.99466098870849</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I11" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N11" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P11" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S11" t="n">
         <v>11.4306287847866</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H12" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J12" t="n">
         <v>25.3569213901844</v>
@@ -31844,34 +31844,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R12" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S12" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I13" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J13" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424314</v>
@@ -31944,13 +31944,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T13" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I14" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N14" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P14" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S14" t="n">
         <v>11.4306287847866</v>
@@ -32029,7 +32029,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H15" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J15" t="n">
         <v>25.3569213901844</v>
@@ -32081,34 +32081,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R15" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S15" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I16" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J16" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N16" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424314</v>
@@ -32181,13 +32181,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T16" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I17" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N17" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P17" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S17" t="n">
         <v>11.4306287847866</v>
@@ -32266,7 +32266,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H18" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J18" t="n">
         <v>25.3569213901844</v>
@@ -32318,34 +32318,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R18" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S18" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I19" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J19" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N19" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424314</v>
@@ -32418,13 +32418,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T19" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I20" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N20" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P20" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S20" t="n">
         <v>11.4306287847866</v>
@@ -32503,7 +32503,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H21" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J21" t="n">
         <v>25.3569213901844</v>
@@ -32555,34 +32555,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R21" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S21" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I22" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J22" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N22" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424314</v>
@@ -32655,13 +32655,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T22" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I23" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N23" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P23" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S23" t="n">
         <v>11.4306287847866</v>
@@ -32740,7 +32740,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J24" t="n">
         <v>25.3569213901844</v>
@@ -32792,34 +32792,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R24" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S24" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I25" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J25" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N25" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424314</v>
@@ -32892,13 +32892,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T25" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I26" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N26" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P26" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S26" t="n">
         <v>11.4306287847866</v>
@@ -32977,7 +32977,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H27" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J27" t="n">
         <v>25.3569213901844</v>
@@ -33029,34 +33029,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R27" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S27" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I28" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J28" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N28" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424314</v>
@@ -33129,13 +33129,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T28" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I29" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N29" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P29" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S29" t="n">
         <v>11.4306287847866</v>
@@ -33214,7 +33214,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H30" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J30" t="n">
         <v>25.3569213901844</v>
@@ -33266,34 +33266,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R30" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S30" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I31" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J31" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N31" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424314</v>
@@ -33366,13 +33366,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T31" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I32" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N32" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P32" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S32" t="n">
         <v>11.4306287847866</v>
@@ -33451,7 +33451,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H33" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J33" t="n">
         <v>25.3569213901844</v>
@@ -33503,34 +33503,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R33" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S33" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I34" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J34" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N34" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424314</v>
@@ -33603,13 +33603,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T34" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I35" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N35" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P35" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S35" t="n">
         <v>11.4306287847866</v>
@@ -33688,7 +33688,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H36" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J36" t="n">
         <v>25.3569213901844</v>
@@ -33740,34 +33740,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R36" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S36" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I37" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J37" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N37" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424314</v>
@@ -33840,13 +33840,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T37" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I38" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N38" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P38" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S38" t="n">
         <v>11.4306287847866</v>
@@ -33925,7 +33925,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H39" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J39" t="n">
         <v>25.3569213901844</v>
@@ -33977,34 +33977,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R39" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S39" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I40" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J40" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N40" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q40" t="n">
         <v>18.84141329424314</v>
@@ -34077,13 +34077,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T40" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I41" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N41" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P41" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S41" t="n">
         <v>11.4306287847866</v>
@@ -34162,7 +34162,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H42" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J42" t="n">
         <v>25.3569213901844</v>
@@ -34214,34 +34214,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R42" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S42" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I43" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J43" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N43" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424314</v>
@@ -34314,13 +34314,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T43" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293619</v>
+        <v>0.501618377829362</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944955</v>
+        <v>5.137199211944956</v>
       </c>
       <c r="I44" t="n">
         <v>19.3386425112665</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529485</v>
+        <v>42.57423279529486</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881176</v>
+        <v>63.80773872881177</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930711</v>
+        <v>79.15914215930712</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603002</v>
+        <v>88.07979798603004</v>
       </c>
       <c r="N44" t="n">
-        <v>89.5050212020377</v>
+        <v>89.50502120203772</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749697</v>
+        <v>84.517053457497</v>
       </c>
       <c r="P44" t="n">
-        <v>72.1333497548346</v>
+        <v>72.13334975483461</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882055</v>
+        <v>54.16914159882056</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632368</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S44" t="n">
         <v>11.4306287847866</v>
@@ -34399,7 +34399,7 @@
         <v>2.195834448948033</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634895</v>
+        <v>0.04012947022634896</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829461</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H45" t="n">
         <v>2.592077475566875</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298803</v>
+        <v>9.240603171298805</v>
       </c>
       <c r="J45" t="n">
         <v>25.3569213901844</v>
@@ -34451,34 +34451,34 @@
         <v>43.33901744684179</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422258</v>
+        <v>58.27465732422259</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935436</v>
+        <v>68.00377645935437</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068123</v>
+        <v>69.80363407068126</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782753</v>
+        <v>63.85668792782754</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713468</v>
+        <v>51.2506217671347</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095291</v>
+        <v>34.25968340095292</v>
       </c>
       <c r="R45" t="n">
         <v>16.66369152775871</v>
       </c>
       <c r="S45" t="n">
-        <v>4.98521712489814</v>
+        <v>4.985217124898141</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837401</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203593</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648512</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678406</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I46" t="n">
-        <v>6.76662633561571</v>
+        <v>6.766626335615712</v>
       </c>
       <c r="J46" t="n">
         <v>15.90811759736498</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309816</v>
+        <v>26.14192399309817</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174707</v>
+        <v>33.45266236174708</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109481</v>
+        <v>35.27114205109482</v>
       </c>
       <c r="N46" t="n">
         <v>34.43247312799858</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097735</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749436</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424314</v>
@@ -34551,13 +34551,13 @@
         <v>10.11721096008322</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964724</v>
+        <v>3.921288598964725</v>
       </c>
       <c r="T46" t="n">
-        <v>0.961400960622546</v>
+        <v>0.9614009606225462</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068233</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K11" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L11" t="n">
         <v>261.0539417397703</v>
@@ -35419,7 +35419,7 @@
         <v>307.2470982515898</v>
       </c>
       <c r="N11" t="n">
-        <v>297.4388820174312</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O11" t="n">
         <v>235.2190232985556</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392654</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>365.9739823579183</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601126</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927416</v>
+        <v>35.43843405129838</v>
       </c>
       <c r="Q12" t="n">
         <v>104.3551970507805</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.26553851340488</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999281</v>
+        <v>120.5276612791228</v>
       </c>
       <c r="L13" t="n">
-        <v>192.759288654776</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
         <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399399</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377297</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P13" t="n">
-        <v>63.69650964498609</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526149</v>
+        <v>64.39597107526143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068233</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K14" t="n">
-        <v>167.8633002549962</v>
+        <v>167.8633002549959</v>
       </c>
       <c r="L14" t="n">
         <v>261.0539417397703</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392654</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>380.4238384241747</v>
       </c>
       <c r="N15" t="n">
-        <v>325.6443239772655</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601126</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>156.0362414140446</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340482</v>
+        <v>54.26553851340483</v>
       </c>
       <c r="K16" t="n">
         <v>135.5890331999279</v>
@@ -35811,16 +35811,16 @@
         <v>192.7592886547758</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>124.1896181673928</v>
       </c>
       <c r="N16" t="n">
         <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
-        <v>73.82694220684537</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068233</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K17" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L17" t="n">
         <v>261.0539417397703</v>
@@ -35899,7 +35899,7 @@
         <v>235.2190232985556</v>
       </c>
       <c r="P17" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q17" t="n">
         <v>44.17844238427575</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392654</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
@@ -35969,19 +35969,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241747</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241747</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O18" t="n">
-        <v>260.3432483132034</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>24.60426532046184</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206321</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M19" t="n">
         <v>74.8550190129354</v>
@@ -36054,10 +36054,10 @@
         <v>78.56464550722717</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501702</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068257</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K20" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L20" t="n">
         <v>261.0539417397703</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710477</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427575</v>
+        <v>44.17844238427591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K21" t="n">
-        <v>139.7936311020788</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>380.4238384241747</v>
@@ -36215,10 +36215,10 @@
         <v>315.1227627601126</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.04212540815677295</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206321</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M22" t="n">
         <v>74.8550190129354</v>
@@ -36291,10 +36291,10 @@
         <v>78.56464550722717</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501702</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068233</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K23" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L23" t="n">
         <v>261.0539417397703</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710477</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427575</v>
+        <v>44.17844238427614</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
-        <v>90.26007390636438</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241748</v>
+        <v>10.16047399767016</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601126</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206321</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M25" t="n">
         <v>74.8550190129354</v>
@@ -36528,10 +36528,10 @@
         <v>78.56464550722717</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501702</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
         <v>317.907360533448</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0980020182223</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
         <v>457.2911585300418</v>
@@ -36613,10 +36613,10 @@
         <v>312.7431224494997</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.2225026627286</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362601</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392654</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809436</v>
       </c>
       <c r="J28" t="n">
-        <v>24.10336573305782</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913874</v>
+        <v>74.8550190129354</v>
       </c>
       <c r="N28" t="n">
         <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>56.38908990501702</v>
+        <v>64.19817900192916</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238785</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.72343032100076</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,10 +36841,10 @@
         <v>457.2911585300418</v>
       </c>
       <c r="N29" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362607</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392654</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F31" t="n">
-        <v>4.62301225552082</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,16 +36984,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809491</v>
+        <v>1.360211686809436</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914427</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456674</v>
+        <v>16.95388906582043</v>
       </c>
       <c r="L31" t="n">
-        <v>156.6138919320975</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M31" t="n">
         <v>74.8550190129354</v>
@@ -37002,10 +37002,10 @@
         <v>228.6087057856792</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501702</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P31" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N32" t="n">
         <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P32" t="n">
         <v>312.7431224494998</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.6847277636261</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392654</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239738</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882923</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520848</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809519</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.5929977591443</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>153.9164924456674</v>
@@ -37233,19 +37233,19 @@
         <v>211.0867479005153</v>
       </c>
       <c r="M34" t="n">
-        <v>82.66410810984577</v>
+        <v>89.29668759834939</v>
       </c>
       <c r="N34" t="n">
         <v>78.56464550722717</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501702</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100085</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068233</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K35" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L35" t="n">
         <v>261.0539417397703</v>
@@ -37391,10 +37391,10 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>284.4784865335121</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241748</v>
+        <v>180.1232894827316</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601126</v>
@@ -37403,7 +37403,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206321</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M37" t="n">
         <v>74.8550190129354</v>
@@ -37476,10 +37476,10 @@
         <v>78.56464550722717</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501702</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068233</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K38" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L38" t="n">
         <v>261.0539417397703</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.61033006392654</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
-        <v>65.64974384243784</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>380.4238384241748</v>
@@ -37640,7 +37640,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.3551970507805</v>
+        <v>24.65245547208347</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206321</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M40" t="n">
         <v>74.8550190129354</v>
@@ -37713,10 +37713,10 @@
         <v>78.56464550722717</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501702</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>29.76276805604388</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068233</v>
+        <v>78.49738634065115</v>
       </c>
       <c r="K41" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
         <v>261.0539417397703</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515898</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N41" t="n">
-        <v>343.5937472944391</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O41" t="n">
         <v>235.2190232985556</v>
@@ -37801,10 +37801,10 @@
         <v>44.17844238427575</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372455</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
-        <v>290.5606228478076</v>
+        <v>48.92439283462231</v>
       </c>
       <c r="M42" t="n">
         <v>391.5748062873359</v>
@@ -37874,10 +37874,10 @@
         <v>315.1227627601126</v>
       </c>
       <c r="P42" t="n">
-        <v>123.0682800942633</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206321</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M43" t="n">
         <v>74.8550190129354</v>
@@ -37950,10 +37950,10 @@
         <v>78.56464550722717</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501702</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068233</v>
+        <v>30.62494344068234</v>
       </c>
       <c r="K44" t="n">
-        <v>167.8633002549959</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397703</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515898</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N44" t="n">
         <v>297.438882017431</v>
@@ -38032,10 +38032,10 @@
         <v>235.2190232985556</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710477</v>
+        <v>240.3342731270604</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.9473326314096</v>
+        <v>44.17844238427575</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>73.53472289854884</v>
       </c>
       <c r="M45" t="n">
         <v>391.5748062873359</v>
@@ -38111,10 +38111,10 @@
         <v>315.1227627601126</v>
       </c>
       <c r="P45" t="n">
-        <v>123.0682800942633</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215312</v>
+        <v>3.872432167215319</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206321</v>
+        <v>61.04268762206322</v>
       </c>
       <c r="M46" t="n">
         <v>74.8550190129354</v>
@@ -38187,10 +38187,10 @@
         <v>78.56464550722717</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501702</v>
+        <v>56.38908990501703</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238785</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
